--- a/various/Liste_fonctionnalites.xlsx
+++ b/various/Liste_fonctionnalites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ac053372a17ad34/Tuyen/Formation/Studi-Developpeur Python/Dossier projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="667" documentId="8_{37C5E34E-F6F1-4991-928F-5F84D62412F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20802B02-13DA-4373-AB84-4B1AEA738B13}"/>
+  <xr:revisionPtr revIDLastSave="691" documentId="8_{37C5E34E-F6F1-4991-928F-5F84D62412F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5C50B83-AC57-474E-B813-0B91993E867E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD8A3E7B-C85C-4A89-8E9A-12E1CCEF3617}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="138">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -381,10 +381,6 @@
     <t>Supprimer un utilisateur</t>
   </si>
   <si>
-    <t>Fait sur profil user -&gt; A faire sur la vue visiteur/
-Rajouter cote gagnante</t>
-  </si>
-  <si>
     <t>user_info.php -&gt; new_email.php</t>
   </si>
   <si>
@@ -443,6 +439,19 @@
   </si>
   <si>
     <t>Vue infos équipes</t>
+  </si>
+  <si>
+    <t>Fait sur profil user -&gt; A faire sur la vue visiteur/ Faire table joueurs
+Afficher cote gagnante</t>
+  </si>
+  <si>
+    <t>Détermination des cotes équipes</t>
+  </si>
+  <si>
+    <t>Excel/PHP</t>
+  </si>
+  <si>
+    <t>Fonction mathématique/Traitement PHP</t>
   </si>
 </sst>
 </file>
@@ -868,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1093,6 +1102,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1415,10 +1430,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1427,7 +1442,7 @@
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.33203125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" customWidth="1"/>
@@ -1577,38 +1592,38 @@
       <c r="A6" s="65"/>
       <c r="B6" s="81"/>
       <c r="C6" s="71"/>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="2">
-        <v>45108</v>
-      </c>
-      <c r="J6" s="40"/>
+      <c r="H6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="17">
+        <v>45108</v>
+      </c>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
       <c r="B7" s="81"/>
       <c r="C7" s="71"/>
       <c r="D7" s="12" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>60</v>
@@ -1626,13 +1641,13 @@
       <c r="B8" s="81"/>
       <c r="C8" s="71"/>
       <c r="D8" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>60</v>
@@ -1649,136 +1664,136 @@
       <c r="A9" s="65"/>
       <c r="B9" s="81"/>
       <c r="C9" s="71"/>
-      <c r="D9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="D9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="9">
-        <v>45231</v>
-      </c>
-      <c r="J9" s="50"/>
-    </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>45108</v>
+      </c>
+      <c r="J9" s="40"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
       <c r="B10" s="81"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="57" t="s">
+      <c r="C10" s="71"/>
+      <c r="D10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="9">
+        <v>45231</v>
+      </c>
+      <c r="J10" s="50"/>
+    </row>
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="65"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="58" t="s">
+      <c r="E11" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="60">
-        <v>45108</v>
-      </c>
-      <c r="J10" s="61" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="65"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="28" t="s">
+      <c r="H11" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="60">
+        <v>45108</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="65"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="37" t="s">
+      <c r="D12" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G12" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="31">
-        <v>45108</v>
-      </c>
-      <c r="J11" s="51"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="21">
-        <v>45108</v>
-      </c>
-      <c r="J12" s="49"/>
+      <c r="H12" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="31">
+        <v>45108</v>
+      </c>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="2">
-        <v>45108</v>
-      </c>
-      <c r="J13" s="40"/>
+      <c r="B13" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="21">
+        <v>45108</v>
+      </c>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
       <c r="B14" s="77"/>
       <c r="C14" s="71"/>
       <c r="D14" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>64</v>
@@ -1787,7 +1802,7 @@
         <v>57</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1802,7 +1817,7 @@
       <c r="B15" s="77"/>
       <c r="C15" s="71"/>
       <c r="D15" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>64</v>
@@ -1821,73 +1836,71 @@
       </c>
       <c r="J15" s="40"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="77"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="35">
-        <v>45078</v>
-      </c>
-      <c r="J16" s="52"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>45108</v>
+      </c>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="65"/>
       <c r="B17" s="77"/>
-      <c r="C17" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="31">
-        <v>45108</v>
-      </c>
-      <c r="J17" s="51"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="35">
+        <v>45078</v>
+      </c>
+      <c r="J17" s="52"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="65"/>
       <c r="B18" s="77"/>
-      <c r="C18" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>132</v>
+      <c r="C18" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>87</v>
+      <c r="F18" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="H18" s="32" t="s">
         <v>4</v>
@@ -1895,25 +1908,25 @@
       <c r="I18" s="31">
         <v>45108</v>
       </c>
-      <c r="J18" s="53"/>
+      <c r="J18" s="51"/>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="65"/>
       <c r="B19" s="77"/>
-      <c r="C19" s="56" t="s">
-        <v>70</v>
+      <c r="C19" s="63" t="s">
+        <v>133</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>66</v>
+        <v>131</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H19" s="32" t="s">
         <v>4</v>
@@ -1923,38 +1936,40 @@
       </c>
       <c r="J19" s="53"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="65"/>
       <c r="B20" s="77"/>
-      <c r="C20" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="21">
-        <v>45108</v>
-      </c>
-      <c r="J20" s="49"/>
+      <c r="C20" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="31">
+        <v>45108</v>
+      </c>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="65"/>
       <c r="B21" s="77"/>
-      <c r="C21" s="71"/>
+      <c r="C21" s="83" t="s">
+        <v>11</v>
+      </c>
       <c r="D21" s="12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>64</v>
@@ -1963,194 +1978,194 @@
         <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="2">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="J21" s="40"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="65"/>
       <c r="B22" s="77"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="23" t="s">
+      <c r="C22" s="83"/>
+      <c r="D22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="25">
-        <v>45200</v>
-      </c>
-      <c r="J22" s="48"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="2">
+        <v>45170</v>
+      </c>
+      <c r="J22" s="40"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="65"/>
       <c r="B23" s="77"/>
-      <c r="C23" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="21">
-        <v>45108</v>
-      </c>
-      <c r="J23" s="49"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="25">
+        <v>45200</v>
+      </c>
+      <c r="J23" s="48"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="65"/>
       <c r="B24" s="77"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="11" t="s">
+      <c r="C24" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="9">
-        <v>45200</v>
-      </c>
-      <c r="J24" s="50"/>
+      <c r="H24" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="21">
+        <v>45108</v>
+      </c>
+      <c r="J24" s="49"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="65"/>
       <c r="B25" s="77"/>
       <c r="C25" s="68"/>
-      <c r="D25" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="2">
-        <v>45108</v>
-      </c>
-      <c r="J25" s="40"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="9">
+        <v>45200</v>
+      </c>
+      <c r="J25" s="50"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="65"/>
       <c r="B26" s="77"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="35">
-        <v>45108</v>
-      </c>
-      <c r="J26" s="52"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C26" s="68"/>
+      <c r="D26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="2">
+        <v>45108</v>
+      </c>
+      <c r="J26" s="40"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="65"/>
       <c r="B27" s="77"/>
-      <c r="C27" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="21">
-        <v>45108</v>
-      </c>
-      <c r="J27" s="49"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="35">
+        <v>45108</v>
+      </c>
+      <c r="J27" s="52"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="65"/>
       <c r="B28" s="77"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="2">
-        <v>45108</v>
-      </c>
-      <c r="J28" s="40"/>
+      <c r="C28" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="21">
+        <v>45108</v>
+      </c>
+      <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="65"/>
       <c r="B29" s="77"/>
       <c r="C29" s="71"/>
       <c r="D29" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>64</v>
@@ -2159,7 +2174,7 @@
         <v>54</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>4</v>
@@ -2169,110 +2184,108 @@
       </c>
       <c r="J29" s="40"/>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="65"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="25">
-        <v>45200</v>
-      </c>
-      <c r="J30" s="48"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="2">
+        <v>45108</v>
+      </c>
+      <c r="J30" s="40"/>
     </row>
     <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="65"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="28" t="s">
+      <c r="B31" s="77"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="25">
+        <v>45200</v>
+      </c>
+      <c r="J31" s="48"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="65"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D32" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="30" t="s">
+      <c r="E32" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="31">
-        <v>45108</v>
-      </c>
-      <c r="J31" s="51"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="65"/>
-      <c r="B32" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="21">
-        <v>45108</v>
-      </c>
-      <c r="J32" s="49" t="s">
-        <v>90</v>
-      </c>
+      <c r="H32" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="31">
+        <v>45108</v>
+      </c>
+      <c r="J32" s="51"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="65"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="2">
-        <v>45108</v>
-      </c>
-      <c r="J33" s="40" t="s">
-        <v>92</v>
+      <c r="B33" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="21">
+        <v>45108</v>
+      </c>
+      <c r="J33" s="49" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2280,7 +2293,7 @@
       <c r="B34" s="74"/>
       <c r="C34" s="71"/>
       <c r="D34" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>64</v>
@@ -2289,7 +2302,7 @@
         <v>54</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>4</v>
@@ -2298,151 +2311,153 @@
         <v>45108</v>
       </c>
       <c r="J34" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="65"/>
       <c r="B35" s="74"/>
       <c r="C35" s="71"/>
-      <c r="D35" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="9">
-        <v>45200</v>
-      </c>
-      <c r="J35" s="50"/>
+      <c r="D35" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="2">
+        <v>45108</v>
+      </c>
+      <c r="J35" s="40" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="65"/>
       <c r="B36" s="74"/>
       <c r="C36" s="71"/>
-      <c r="D36" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="40" t="s">
-        <v>91</v>
-      </c>
+      <c r="D36" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="9">
+        <v>45200</v>
+      </c>
+      <c r="J36" s="50"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="65"/>
       <c r="B37" s="74"/>
       <c r="C37" s="71"/>
-      <c r="D37" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="9">
-        <v>45200</v>
-      </c>
-      <c r="J37" s="50"/>
-    </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D37" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="65"/>
       <c r="B38" s="74"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H38" s="26" t="s">
+      <c r="C38" s="71"/>
+      <c r="D38" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="9">
         <v>45200</v>
       </c>
-      <c r="J38" s="48"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J38" s="50"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="65"/>
       <c r="B39" s="74"/>
-      <c r="C39" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" s="21">
-        <v>45108</v>
-      </c>
-      <c r="J39" s="49"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="25">
+        <v>45200</v>
+      </c>
+      <c r="J39" s="48"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="65"/>
       <c r="B40" s="74"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I40" s="2">
-        <v>45108</v>
-      </c>
-      <c r="J40" s="40"/>
+      <c r="C40" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="21">
+        <v>45108</v>
+      </c>
+      <c r="J40" s="49"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="65"/>
       <c r="B41" s="74"/>
       <c r="C41" s="68"/>
       <c r="D41" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>64</v>
@@ -2451,7 +2466,7 @@
         <v>54</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>4</v>
@@ -2461,184 +2476,182 @@
       </c>
       <c r="J41" s="40"/>
     </row>
-    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="65"/>
       <c r="B42" s="74"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="H42" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="35">
-        <v>45108</v>
-      </c>
-      <c r="J42" s="52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C42" s="68"/>
+      <c r="D42" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="2">
+        <v>45108</v>
+      </c>
+      <c r="J42" s="40"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="65"/>
       <c r="B43" s="74"/>
-      <c r="C43" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="21">
-        <v>45108</v>
-      </c>
-      <c r="J43" s="49"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="35">
+        <v>45108</v>
+      </c>
+      <c r="J43" s="52" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="65"/>
       <c r="B44" s="74"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="2">
-        <v>45108</v>
-      </c>
-      <c r="J44" s="40"/>
+      <c r="C44" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="21">
+        <v>45108</v>
+      </c>
+      <c r="J44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="65"/>
       <c r="B45" s="74"/>
       <c r="C45" s="71"/>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="2">
+        <v>45108</v>
+      </c>
+      <c r="J45" s="40"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="65"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="17">
-        <v>45108</v>
-      </c>
-      <c r="J45" s="62"/>
-    </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="65"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="23" t="s">
+      <c r="E46" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="17">
+        <v>45108</v>
+      </c>
+      <c r="J46" s="62"/>
+    </row>
+    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="65"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E46" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H46" s="26" t="s">
+      <c r="E47" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H47" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I46" s="25">
+      <c r="I47" s="25">
         <v>45200</v>
       </c>
-      <c r="J46" s="48"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="65"/>
-      <c r="B47" s="76" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="21">
-        <v>45108</v>
-      </c>
-      <c r="J47" s="49" t="s">
-        <v>90</v>
-      </c>
+      <c r="J47" s="48"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="65"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="2">
-        <v>45108</v>
-      </c>
-      <c r="J48" s="40" t="s">
-        <v>92</v>
+      <c r="B48" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="21">
+        <v>45108</v>
+      </c>
+      <c r="J48" s="49" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2646,7 +2659,7 @@
       <c r="B49" s="77"/>
       <c r="C49" s="68"/>
       <c r="D49" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>64</v>
@@ -2655,7 +2668,7 @@
         <v>54</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -2664,15 +2677,15 @@
         <v>45108</v>
       </c>
       <c r="J49" s="40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="65"/>
       <c r="B50" s="77"/>
       <c r="C50" s="68"/>
       <c r="D50" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>64</v>
@@ -2681,7 +2694,7 @@
         <v>54</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>4</v>
@@ -2690,127 +2703,152 @@
         <v>45108</v>
       </c>
       <c r="J50" s="40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="65"/>
       <c r="B51" s="77"/>
-      <c r="C51" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I51" s="21">
-        <v>45108</v>
-      </c>
-      <c r="J51" s="49"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" s="2">
+        <v>45108</v>
+      </c>
+      <c r="J51" s="40" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="65"/>
       <c r="B52" s="77"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="2">
-        <v>45108</v>
-      </c>
-      <c r="J52" s="40"/>
+      <c r="C52" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="21">
+        <v>45108</v>
+      </c>
+      <c r="J52" s="49"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="65"/>
       <c r="B53" s="77"/>
       <c r="C53" s="71"/>
       <c r="D53" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="2">
+        <v>45108</v>
+      </c>
+      <c r="J53" s="40"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="65"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="E54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="2">
+        <v>45108</v>
+      </c>
+      <c r="J54" s="40"/>
+    </row>
+    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="66"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I53" s="2">
-        <v>45108</v>
-      </c>
-      <c r="J53" s="40"/>
-    </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="66"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G54" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="H54" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="35">
-        <v>45108</v>
-      </c>
-      <c r="J54" s="52" t="s">
+      <c r="H55" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" s="35">
+        <v>45108</v>
+      </c>
+      <c r="J55" s="52" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A2:A54"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="B32:B46"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B47:B54"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="B12:B31"/>
-    <mergeCell ref="C32:C38"/>
+  <mergeCells count="15">
+    <mergeCell ref="A2:A55"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="B33:B47"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="B48:B55"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="B13:B32"/>
+    <mergeCell ref="C33:C39"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C13:C17"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>

--- a/various/Liste_fonctionnalites.xlsx
+++ b/various/Liste_fonctionnalites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ac053372a17ad34/Tuyen/Formation/Studi-Developpeur Python/Dossier projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="691" documentId="8_{37C5E34E-F6F1-4991-928F-5F84D62412F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5C50B83-AC57-474E-B813-0B91993E867E}"/>
+  <xr:revisionPtr revIDLastSave="696" documentId="8_{37C5E34E-F6F1-4991-928F-5F84D62412F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1DEEDC7-54FA-4E66-A0F8-47B4E39C33D8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD8A3E7B-C85C-4A89-8E9A-12E1CCEF3617}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="139">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t>Fonction mathématique/Traitement PHP</t>
+  </si>
+  <si>
+    <t>cart.php -&gt; bet.php</t>
   </si>
 </sst>
 </file>
@@ -1046,6 +1049,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1102,12 +1111,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1432,7 +1435,7 @@
   </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
@@ -1483,13 +1486,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="70" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -1513,9 +1516,9 @@
       <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="65"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="69"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="23" t="s">
         <v>69</v>
       </c>
@@ -1537,9 +1540,9 @@
       <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="70" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="72" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -1563,9 +1566,9 @@
       <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="71"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="12" t="s">
         <v>37</v>
       </c>
@@ -1589,9 +1592,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="71"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
@@ -1613,9 +1616,9 @@
       <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="71"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="12" t="s">
         <v>135</v>
       </c>
@@ -1637,9 +1640,9 @@
       <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="71"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="12" t="s">
         <v>39</v>
       </c>
@@ -1661,9 +1664,9 @@
       <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="71"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1685,9 +1688,9 @@
       <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="71"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="13" t="s">
         <v>40</v>
       </c>
@@ -1709,9 +1712,9 @@
       <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="65"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="72"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="57" t="s">
         <v>36</v>
       </c>
@@ -1735,8 +1738,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="65"/>
-      <c r="B12" s="82"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="28" t="s">
         <v>70</v>
       </c>
@@ -1761,11 +1764,11 @@
       <c r="J12" s="51"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="79" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="72" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -1789,9 +1792,9 @@
       <c r="J13" s="49"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="71"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="12" t="s">
         <v>55</v>
       </c>
@@ -1813,9 +1816,9 @@
       <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="71"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="12" t="s">
         <v>56</v>
       </c>
@@ -1837,9 +1840,9 @@
       <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="71"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="12" t="s">
         <v>62</v>
       </c>
@@ -1861,9 +1864,9 @@
       <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="65"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="72"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="33" t="s">
         <v>43</v>
       </c>
@@ -1885,8 +1888,8 @@
       <c r="J17" s="52"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="65"/>
-      <c r="B18" s="77"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="55" t="s">
         <v>8</v>
       </c>
@@ -1911,8 +1914,8 @@
       <c r="J18" s="51"/>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="65"/>
-      <c r="B19" s="77"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="63" t="s">
         <v>133</v>
       </c>
@@ -1937,8 +1940,8 @@
       <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="65"/>
-      <c r="B20" s="77"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="56" t="s">
         <v>70</v>
       </c>
@@ -1963,9 +1966,9 @@
       <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="83" t="s">
+      <c r="A21" s="67"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="64" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="12" t="s">
@@ -1978,7 +1981,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1989,9 +1992,9 @@
       <c r="J21" s="40"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="83"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="12" t="s">
         <v>14</v>
       </c>
@@ -2013,9 +2016,9 @@
       <c r="J22" s="40"/>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="65"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="84"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="23" t="s">
         <v>28</v>
       </c>
@@ -2037,9 +2040,9 @@
       <c r="J23" s="48"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="65"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="67" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="69" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="19" t="s">
@@ -2063,9 +2066,9 @@
       <c r="J24" s="49"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="65"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="68"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="13" t="s">
         <v>48</v>
       </c>
@@ -2087,9 +2090,9 @@
       <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="65"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="68"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="12" t="s">
         <v>61</v>
       </c>
@@ -2111,9 +2114,9 @@
       <c r="J26" s="40"/>
     </row>
     <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="65"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="69"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="33" t="s">
         <v>22</v>
       </c>
@@ -2135,9 +2138,9 @@
       <c r="J27" s="52"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="65"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="70" t="s">
+      <c r="A28" s="67"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="72" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="19" t="s">
@@ -2161,9 +2164,9 @@
       <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="65"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="71"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="12" t="s">
         <v>24</v>
       </c>
@@ -2185,9 +2188,9 @@
       <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="65"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="71"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="73"/>
       <c r="D30" s="12" t="s">
         <v>25</v>
       </c>
@@ -2209,9 +2212,9 @@
       <c r="J30" s="40"/>
     </row>
     <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="65"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="72"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="23" t="s">
         <v>26</v>
       </c>
@@ -2233,8 +2236,8 @@
       <c r="J31" s="48"/>
     </row>
     <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="65"/>
-      <c r="B32" s="78"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="28" t="s">
         <v>33</v>
       </c>
@@ -2259,11 +2262,11 @@
       <c r="J32" s="51"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="65"/>
-      <c r="B33" s="73" t="s">
+      <c r="A33" s="67"/>
+      <c r="B33" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="72" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="19" t="s">
@@ -2289,9 +2292,9 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="65"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="71"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="73"/>
       <c r="D34" s="12" t="s">
         <v>80</v>
       </c>
@@ -2315,9 +2318,9 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="65"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="71"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="12" t="s">
         <v>81</v>
       </c>
@@ -2341,9 +2344,9 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="65"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="71"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="13" t="s">
         <v>89</v>
       </c>
@@ -2361,9 +2364,9 @@
       <c r="J36" s="50"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="65"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="71"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="73"/>
       <c r="D37" s="12" t="s">
         <v>82</v>
       </c>
@@ -2383,9 +2386,9 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="65"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="71"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="13" t="s">
         <v>83</v>
       </c>
@@ -2405,9 +2408,9 @@
       <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="65"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="72"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="23" t="s">
         <v>84</v>
       </c>
@@ -2427,9 +2430,9 @@
       <c r="J39" s="48"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="65"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="67" t="s">
+      <c r="A40" s="67"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="69" t="s">
         <v>75</v>
       </c>
       <c r="D40" s="19" t="s">
@@ -2453,9 +2456,9 @@
       <c r="J40" s="49"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="65"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="68"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="12" t="s">
         <v>100</v>
       </c>
@@ -2477,9 +2480,9 @@
       <c r="J41" s="40"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="65"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="68"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="70"/>
       <c r="D42" s="12" t="s">
         <v>101</v>
       </c>
@@ -2501,9 +2504,9 @@
       <c r="J42" s="40"/>
     </row>
     <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="65"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="69"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="33" t="s">
         <v>106</v>
       </c>
@@ -2527,9 +2530,9 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="65"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="70" t="s">
+      <c r="A44" s="67"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="72" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="19" t="s">
@@ -2553,9 +2556,9 @@
       <c r="J44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="65"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="71"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="73"/>
       <c r="D45" s="12" t="s">
         <v>110</v>
       </c>
@@ -2577,9 +2580,9 @@
       <c r="J45" s="40"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="65"/>
-      <c r="B46" s="74"/>
-      <c r="C46" s="71"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="73"/>
       <c r="D46" s="6" t="s">
         <v>112</v>
       </c>
@@ -2601,9 +2604,9 @@
       <c r="J46" s="62"/>
     </row>
     <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="65"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="72"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="74"/>
       <c r="D47" s="23" t="s">
         <v>113</v>
       </c>
@@ -2625,11 +2628,11 @@
       <c r="J47" s="48"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="65"/>
-      <c r="B48" s="76" t="s">
+      <c r="A48" s="67"/>
+      <c r="B48" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="69" t="s">
         <v>74</v>
       </c>
       <c r="D48" s="19" t="s">
@@ -2655,9 +2658,9 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="65"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="68"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="70"/>
       <c r="D49" s="12" t="s">
         <v>80</v>
       </c>
@@ -2681,9 +2684,9 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="65"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="68"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="70"/>
       <c r="D50" s="12" t="s">
         <v>81</v>
       </c>
@@ -2707,9 +2710,9 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="65"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="68"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="70"/>
       <c r="D51" s="12" t="s">
         <v>82</v>
       </c>
@@ -2733,9 +2736,9 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="65"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="70" t="s">
+      <c r="A52" s="67"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="72" t="s">
         <v>75</v>
       </c>
       <c r="D52" s="19" t="s">
@@ -2759,9 +2762,9 @@
       <c r="J52" s="49"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="65"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="71"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="73"/>
       <c r="D53" s="12" t="s">
         <v>100</v>
       </c>
@@ -2783,9 +2786,9 @@
       <c r="J53" s="40"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="65"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="71"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="73"/>
       <c r="D54" s="12" t="s">
         <v>101</v>
       </c>
@@ -2807,9 +2810,9 @@
       <c r="J54" s="40"/>
     </row>
     <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="66"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="72"/>
+      <c r="A55" s="68"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="74"/>
       <c r="D55" s="33" t="s">
         <v>106</v>
       </c>

--- a/various/Liste_fonctionnalites.xlsx
+++ b/various/Liste_fonctionnalites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ac053372a17ad34/Tuyen/Formation/Studi-Developpeur Python/Dossier projet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SuperBowlBET\various\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="696" documentId="8_{37C5E34E-F6F1-4991-928F-5F84D62412F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1DEEDC7-54FA-4E66-A0F8-47B4E39C33D8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502EAD3E-00B7-4E28-8EE9-DF0AFAB669BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD8A3E7B-C85C-4A89-8E9A-12E1CCEF3617}"/>
+    <workbookView xWindow="96" yWindow="552" windowWidth="20880" windowHeight="11232" xr2:uid="{DD8A3E7B-C85C-4A89-8E9A-12E1CCEF3617}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="142">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -455,6 +455,15 @@
   </si>
   <si>
     <t>cart.php -&gt; bet.php</t>
+  </si>
+  <si>
+    <t>Version de l'app</t>
+  </si>
+  <si>
+    <t>Statut et délai</t>
+  </si>
+  <si>
+    <t>Super Admin</t>
   </si>
 </sst>
 </file>
@@ -1127,10 +1136,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1433,10 +1438,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2833,6 +2838,21 @@
       </c>
       <c r="J55" s="52" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C58" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
